--- a/biology/Zoologie/Idiognathodontidae/Idiognathodontidae.xlsx
+++ b/biology/Zoologie/Idiognathodontidae/Idiognathodontidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Idiognathodontidae sont une famille éteinte de conodontes de l'ordre des Ozarkodinida.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Idiognathodontidae a été créée en 1933 par les paléontologues américains Reginald Wilson Harris (d) et Richard Vincen Hollingsworth (d)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Idiognathodontidae a été créée en 1933 par les paléontologues américains Reginald Wilson Harris (d) et Richard Vincen Hollingsworth (d),.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database                   (5 juin 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (5 juin 2022) :
 † Gnathodus Pander, 1856
 † Idiognathodus  Gunnell, 1931
 † Protognathodus Ziegler, 1969</t>
@@ -575,7 +591,9 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">o Conodonta (éteint)
 └─o Ozarkodinida (éteint)
@@ -628,7 +646,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) R. W. Harris et R. V. Hollingsworth, « New Pennsylvanian conodonts from Oklahoma », American Journal of Science, and Arts, New Haven, Inconnu, vol. s5-25, no 147,‎ 1er mars 1933, p. 193-204 (ISSN 0002-9599 et 1945-452X, OCLC 5694945, DOI 10.2475/AJS.S5-25.147.193)</t>
         </is>
